--- a/Team-Data/2013-14/11-4-2013-14.xlsx
+++ b/Team-Data/2013-14/11-4-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>-1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>5</v>
@@ -762,13 +829,13 @@
         <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM2" t="n">
         <v>10</v>
@@ -786,13 +853,13 @@
         <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>4</v>
@@ -801,25 +868,25 @@
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA2" t="n">
         <v>11</v>
       </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -848,13 +915,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -863,40 +930,40 @@
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="J3" t="n">
-        <v>71.5</v>
+        <v>72</v>
       </c>
       <c r="K3" t="n">
-        <v>0.455</v>
+        <v>0.449</v>
       </c>
       <c r="L3" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="M3" t="n">
-        <v>16.3</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.262</v>
+        <v>0.222</v>
       </c>
       <c r="O3" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="P3" t="n">
-        <v>24.3</v>
+        <v>26.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.753</v>
+        <v>0.734</v>
       </c>
       <c r="R3" t="n">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="S3" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="T3" t="n">
-        <v>38.5</v>
+        <v>40.7</v>
       </c>
       <c r="U3" t="n">
         <v>14.3</v>
@@ -905,34 +972,34 @@
         <v>21</v>
       </c>
       <c r="W3" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.8</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.5</v>
+        <v>87.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG3" t="n">
         <v>27</v>
@@ -941,40 +1008,40 @@
         <v>5</v>
       </c>
       <c r="AI3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
         <v>12</v>
       </c>
       <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
         <v>28</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT3" t="n">
         <v>25</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>27</v>
       </c>
       <c r="AU3" t="n">
         <v>30</v>
@@ -983,19 +1050,19 @@
         <v>30</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA3" t="n">
         <v>18</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>20</v>
       </c>
       <c r="BB3" t="n">
         <v>28</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -1108,28 +1175,28 @@
         <v>-8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1138,31 +1205,31 @@
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>10</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>19</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU4" t="n">
         <v>13</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1174,10 +1241,10 @@
         <v>2</v>
       </c>
       <c r="AZ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB4" t="n">
         <v>20</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -1290,40 +1357,40 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL5" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>30</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>6</v>
@@ -1332,7 +1399,7 @@
         <v>30</v>
       </c>
       <c r="AR5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS5" t="n">
         <v>27</v>
@@ -1341,16 +1408,16 @@
         <v>28</v>
       </c>
       <c r="AU5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>3</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1362,7 +1429,7 @@
         <v>11</v>
       </c>
       <c r="BB5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>-4.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
@@ -1490,10 +1557,10 @@
         <v>16</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>27</v>
@@ -1502,13 +1569,13 @@
         <v>22</v>
       </c>
       <c r="AN6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -1517,16 +1584,16 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW6" t="n">
         <v>17</v>
@@ -1535,19 +1602,19 @@
         <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>20</v>
       </c>
       <c r="BC6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -1576,106 +1643,106 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>33.8</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>84</v>
+        <v>83.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.402</v>
+        <v>0.382</v>
       </c>
       <c r="L7" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>16</v>
       </c>
       <c r="N7" t="n">
-        <v>0.266</v>
+        <v>0.25</v>
       </c>
       <c r="O7" t="n">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="P7" t="n">
-        <v>20.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.732</v>
       </c>
       <c r="R7" t="n">
         <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>33</v>
+        <v>31.3</v>
       </c>
       <c r="T7" t="n">
-        <v>44</v>
+        <v>42.3</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>15.3</v>
       </c>
       <c r="V7" t="n">
-        <v>17.8</v>
+        <v>15.7</v>
       </c>
       <c r="W7" t="n">
         <v>10.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>87.3</v>
+        <v>85.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4</v>
+        <v>-5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>14</v>
       </c>
       <c r="AG7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>14</v>
       </c>
-      <c r="AH7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10</v>
-      </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
         <v>28</v>
@@ -1687,49 +1754,49 @@
         <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>17</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AT7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AV7" t="n">
         <v>13</v>
       </c>
-      <c r="AU7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>17</v>
-      </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="BB7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -1836,31 +1903,31 @@
         <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>7</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM8" t="n">
         <v>9</v>
@@ -1869,7 +1936,7 @@
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>4</v>
@@ -1884,25 +1951,25 @@
         <v>18</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW8" t="n">
         <v>10</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>8</v>
       </c>
       <c r="AZ8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA8" t="n">
         <v>7</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -2033,43 +2100,43 @@
         <v>5</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
         <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM9" t="n">
         <v>24</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
         <v>18</v>
       </c>
       <c r="AP9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,7 +2151,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -2200,28 +2267,28 @@
         <v>6</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK10" t="n">
         <v>7</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>20</v>
@@ -2230,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>9</v>
@@ -2239,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>4</v>
@@ -2248,7 +2315,7 @@
         <v>24</v>
       </c>
       <c r="AT10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
         <v>17</v>
@@ -2260,13 +2327,13 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -2304,142 +2371,142 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
       <c r="H11" t="n">
         <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="J11" t="n">
-        <v>82.5</v>
+        <v>79.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.503</v>
+        <v>0.525</v>
       </c>
       <c r="L11" t="n">
-        <v>13.3</v>
+        <v>12.7</v>
       </c>
       <c r="M11" t="n">
-        <v>28.3</v>
+        <v>25</v>
       </c>
       <c r="N11" t="n">
-        <v>0.469</v>
+        <v>0.507</v>
       </c>
       <c r="O11" t="n">
-        <v>15.8</v>
+        <v>16.7</v>
       </c>
       <c r="P11" t="n">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.716</v>
+        <v>0.735</v>
       </c>
       <c r="R11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="S11" t="n">
-        <v>36</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>41.7</v>
       </c>
       <c r="U11" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="V11" t="n">
-        <v>20</v>
+        <v>19.3</v>
       </c>
       <c r="W11" t="n">
-        <v>10.3</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>3</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="AA11" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="n">
         <v>22</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>112</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AX11" t="n">
         <v>5</v>
@@ -2451,13 +2518,13 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB11" t="n">
         <v>2</v>
       </c>
       <c r="BC11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -2486,118 +2553,118 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>36.3</v>
+        <v>34.7</v>
       </c>
       <c r="J12" t="n">
-        <v>74.5</v>
+        <v>72</v>
       </c>
       <c r="K12" t="n">
-        <v>0.487</v>
+        <v>0.481</v>
       </c>
       <c r="L12" t="n">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M12" t="n">
         <v>25.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.356</v>
+        <v>0.382</v>
       </c>
       <c r="O12" t="n">
-        <v>26.3</v>
+        <v>25.3</v>
       </c>
       <c r="P12" t="n">
-        <v>38.3</v>
+        <v>36.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>35.5</v>
+        <v>36.3</v>
       </c>
       <c r="T12" t="n">
-        <v>47.8</v>
+        <v>48.3</v>
       </c>
       <c r="U12" t="n">
-        <v>17.8</v>
+        <v>16.7</v>
       </c>
       <c r="V12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W12" t="n">
         <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.3</v>
+        <v>19.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.8</v>
+        <v>104.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>10.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2609,37 +2676,37 @@
         <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>23</v>
       </c>
       <c r="AV12" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
         <v>22</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2761,22 +2828,22 @@
         <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK13" t="n">
         <v>14</v>
       </c>
       <c r="AL13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN13" t="n">
         <v>8</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>7</v>
       </c>
       <c r="AO13" t="n">
         <v>6</v>
@@ -2788,13 +2855,13 @@
         <v>13</v>
       </c>
       <c r="AR13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
@@ -2809,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="AY13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ13" t="n">
         <v>1</v>
@@ -2821,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="BC13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -2850,115 +2917,115 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>41.8</v>
+        <v>39.3</v>
       </c>
       <c r="J14" t="n">
-        <v>83</v>
+        <v>79.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.503</v>
+        <v>0.496</v>
       </c>
       <c r="L14" t="n">
-        <v>11</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>27.8</v>
+        <v>24.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.396</v>
+        <v>0.397</v>
       </c>
       <c r="O14" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="P14" t="n">
-        <v>33.8</v>
+        <v>35.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.726</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>11.3</v>
+        <v>12</v>
       </c>
       <c r="S14" t="n">
         <v>29</v>
       </c>
       <c r="T14" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="U14" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="V14" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="AA14" t="n">
         <v>28.3</v>
       </c>
-      <c r="V14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AB14" t="n">
+        <v>113</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD14" t="n">
         <v>4</v>
       </c>
-      <c r="Z14" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>119</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1</v>
-      </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,43 +3034,43 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS14" t="n">
         <v>24</v>
       </c>
       <c r="AT14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
         <v>30</v>
       </c>
       <c r="BA14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF15" t="n">
         <v>14</v>
@@ -3125,7 +3192,7 @@
         <v>5</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>3</v>
@@ -3134,10 +3201,10 @@
         <v>24</v>
       </c>
       <c r="AL15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM15" t="n">
         <v>6</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>8</v>
       </c>
       <c r="AN15" t="n">
         <v>9</v>
@@ -3146,13 +3213,13 @@
         <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS15" t="n">
         <v>1</v>
@@ -3164,28 +3231,28 @@
         <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW15" t="n">
         <v>26</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -3214,115 +3281,115 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H16" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>38.7</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8</v>
+        <v>85.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.451</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
         <v>18.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.3</v>
+        <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.785</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="S16" t="n">
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>44.3</v>
       </c>
       <c r="U16" t="n">
         <v>23</v>
       </c>
       <c r="V16" t="n">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="W16" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.3</v>
+        <v>23.3</v>
       </c>
       <c r="AA16" t="n">
         <v>21.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.8</v>
+        <v>101.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>-2.3</v>
+        <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="n">
         <v>11</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
@@ -3331,43 +3398,43 @@
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>17</v>
       </c>
       <c r="AW16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY16" t="n">
         <v>18</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
         <v>18</v>
       </c>
       <c r="BB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>14</v>
@@ -3492,16 +3559,16 @@
         <v>11</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL17" t="n">
         <v>2</v>
       </c>
       <c r="AM17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN17" t="n">
         <v>3</v>
@@ -3510,10 +3577,10 @@
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,22 +3592,22 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>5</v>
@@ -3549,7 +3616,7 @@
         <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -3656,25 +3723,25 @@
         <v>-2.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>5</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
         <v>15</v>
@@ -3686,10 +3753,10 @@
         <v>26</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>23</v>
@@ -3710,13 +3777,13 @@
         <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
@@ -3725,13 +3792,13 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB18" t="n">
         <v>24</v>
       </c>
       <c r="BC18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -3760,118 +3827,118 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="I19" t="n">
-        <v>36</v>
+        <v>36.7</v>
       </c>
       <c r="J19" t="n">
-        <v>87.5</v>
+        <v>85.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.411</v>
+        <v>0.43</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N19" t="n">
-        <v>0.31</v>
+        <v>0.361</v>
       </c>
       <c r="O19" t="n">
-        <v>25.5</v>
+        <v>27.7</v>
       </c>
       <c r="P19" t="n">
-        <v>32.3</v>
+        <v>35</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R19" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="S19" t="n">
-        <v>33.5</v>
+        <v>34.3</v>
       </c>
       <c r="T19" t="n">
-        <v>44.8</v>
+        <v>45.3</v>
       </c>
       <c r="U19" t="n">
-        <v>23</v>
+        <v>23.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.5</v>
+        <v>14.7</v>
       </c>
       <c r="W19" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="X19" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>26.8</v>
+        <v>27.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.3</v>
+        <v>109.7</v>
       </c>
       <c r="AC19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM19" t="n">
         <v>8</v>
       </c>
-      <c r="AD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI19" t="n">
+      <c r="AN19" t="n">
         <v>16</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>21</v>
-      </c>
       <c r="AO19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3880,40 +3947,40 @@
         <v>7</v>
       </c>
       <c r="AR19" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AS19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-1.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>5</v>
@@ -4038,7 +4105,7 @@
         <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>25</v>
@@ -4050,13 +4117,13 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>7</v>
       </c>
       <c r="AP20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ20" t="n">
         <v>5</v>
@@ -4068,7 +4135,7 @@
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>15</v>
@@ -4086,7 +4153,7 @@
         <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA20" t="n">
         <v>25</v>
@@ -4095,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="BC20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -4202,25 +4269,25 @@
         <v>-1</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>5</v>
       </c>
       <c r="AI21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
         <v>16</v>
@@ -4250,19 +4317,19 @@
         <v>19</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU21" t="n">
         <v>20</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>3</v>
       </c>
       <c r="AX21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY21" t="n">
         <v>1</v>
@@ -4277,7 +4344,7 @@
         <v>27</v>
       </c>
       <c r="BC21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -4384,40 +4451,40 @@
         <v>-3</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH22" t="n">
         <v>5</v>
       </c>
       <c r="AI22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK22" t="n">
         <v>28</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>29</v>
       </c>
       <c r="AL22" t="n">
         <v>25</v>
       </c>
       <c r="AM22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN22" t="n">
         <v>30</v>
       </c>
       <c r="AO22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP22" t="n">
         <v>7</v>
@@ -4426,13 +4493,13 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU22" t="n">
         <v>29</v>
@@ -4444,13 +4511,13 @@
         <v>10</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY22" t="n">
         <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
         <v>9</v>
@@ -4459,7 +4526,7 @@
         <v>17</v>
       </c>
       <c r="BC22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF23" t="n">
         <v>14</v>
@@ -4578,7 +4645,7 @@
         <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI23" t="n">
         <v>4</v>
@@ -4590,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="AL23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM23" t="n">
         <v>17</v>
@@ -4599,31 +4666,31 @@
         <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS23" t="n">
         <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
         <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>9</v>
@@ -4632,16 +4699,16 @@
         <v>30</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -4670,160 +4737,160 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>41</v>
+        <v>44.3</v>
       </c>
       <c r="J24" t="n">
-        <v>87</v>
+        <v>86.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.471</v>
+        <v>0.512</v>
       </c>
       <c r="L24" t="n">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M24" t="n">
-        <v>22.8</v>
+        <v>22</v>
       </c>
       <c r="N24" t="n">
-        <v>0.33</v>
+        <v>0.379</v>
       </c>
       <c r="O24" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="P24" t="n">
-        <v>23.3</v>
+        <v>18.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.667</v>
+        <v>0.696</v>
       </c>
       <c r="R24" t="n">
-        <v>10.3</v>
+        <v>9</v>
       </c>
       <c r="S24" t="n">
-        <v>34</v>
+        <v>32.7</v>
       </c>
       <c r="T24" t="n">
-        <v>44.3</v>
+        <v>41.7</v>
       </c>
       <c r="U24" t="n">
-        <v>23.3</v>
+        <v>24.7</v>
       </c>
       <c r="V24" t="n">
-        <v>19</v>
+        <v>17.3</v>
       </c>
       <c r="W24" t="n">
-        <v>10.3</v>
+        <v>10.7</v>
       </c>
       <c r="X24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD24" t="n">
         <v>4</v>
       </c>
-      <c r="Y24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>105</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
       <c r="AE24" t="n">
         <v>1</v>
       </c>
       <c r="AF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK24" t="n">
         <v>2</v>
       </c>
-      <c r="AG24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI24" t="n">
+      <c r="AL24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ24" t="n">
         <v>4</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="BA24" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC24" t="n">
         <v>7</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>17</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -4930,40 +4997,40 @@
         <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH25" t="n">
         <v>5</v>
       </c>
       <c r="AI25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK25" t="n">
         <v>19</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AN25" t="n">
         <v>22</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
         <v>23</v>
@@ -4984,13 +5051,13 @@
         <v>22</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -4999,7 +5066,7 @@
         <v>11</v>
       </c>
       <c r="BA25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -5112,22 +5179,22 @@
         <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ26" t="n">
         <v>2</v>
@@ -5136,34 +5203,34 @@
         <v>10</v>
       </c>
       <c r="AL26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN26" t="n">
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
@@ -5172,22 +5239,22 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -5294,28 +5361,28 @@
         <v>-6</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF27" t="n">
         <v>14</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
       </c>
       <c r="AI27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK27" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>27</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
@@ -5324,7 +5391,7 @@
         <v>16</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>9</v>
@@ -5345,7 +5412,7 @@
         <v>23</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
@@ -5354,7 +5421,7 @@
         <v>17</v>
       </c>
       <c r="AX27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -5476,16 +5543,16 @@
         <v>1</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>5</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>15</v>
@@ -5524,10 +5591,10 @@
         <v>14</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
         <v>3</v>
@@ -5536,7 +5603,7 @@
         <v>27</v>
       </c>
       <c r="AX28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
@@ -5551,7 +5618,7 @@
         <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -5658,25 +5725,25 @@
         <v>2</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
         <v>18</v>
@@ -5691,10 +5758,10 @@
         <v>24</v>
       </c>
       <c r="AO29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ29" t="n">
         <v>29</v>
@@ -5703,16 +5770,16 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
       </c>
       <c r="AU29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW29" t="n">
         <v>23</v>
@@ -5733,7 +5800,7 @@
         <v>17</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>27</v>
@@ -5855,13 +5922,13 @@
         <v>5</v>
       </c>
       <c r="AI30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>25</v>
@@ -5870,7 +5937,7 @@
         <v>19</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>13</v>
@@ -5879,7 +5946,7 @@
         <v>9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR30" t="n">
         <v>1</v>
@@ -5894,7 +5961,7 @@
         <v>21</v>
       </c>
       <c r="AV30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW30" t="n">
         <v>24</v>
@@ -5903,7 +5970,7 @@
         <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>22</v>
@@ -5915,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="BC30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
@@ -6040,28 +6107,28 @@
         <v>12</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN31" t="n">
         <v>12</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>3</v>
@@ -6070,28 +6137,28 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU31" t="n">
         <v>13</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ31" t="n">
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-4-2013-14</t>
+          <t>2013-11-04</t>
         </is>
       </c>
     </row>
